--- a/xlsx/十二天宫数据.xlsx
+++ b/xlsx/十二天宫数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB1CAA6-1A80-624C-9BB6-A33FD1E76FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB221C14-782B-4B4B-B379-C7BDD6EA61EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{9976A4E1-CF96-F94A-82BD-6A8703EE4823}"/>
   </bookViews>
@@ -527,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF8277A-7A12-6942-B2D3-42D098D3F365}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
